--- a/Academy-budget-fall2017.xlsx
+++ b/Academy-budget-fall2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="0" windowWidth="19040" windowHeight="12020"/>
+    <workbookView xWindow="8160" yWindow="0" windowWidth="19040" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Kustannusarvio" sheetId="1" r:id="rId1"/>
@@ -582,6 +582,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -589,42 +625,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -934,10 +934,10 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -995,18 +995,18 @@
         <v>21</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1098,20 +1098,20 @@
         <v>20</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="88"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1135,20 +1135,20 @@
         <v>23</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="91"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="88"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1172,20 +1172,20 @@
         <v>22</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="91"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="88"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1207,18 +1207,18 @@
     <row r="8" spans="1:31" ht="13.75" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="88"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1426,12 +1426,12 @@
         <v>37848.725779200002</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="80" t="s">
+      <c r="K13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -1485,12 +1485,12 @@
         <v>22078.423371199999</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="79"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -1544,12 +1544,12 @@
         <v>14508.678215360003</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="85"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -1601,12 +1601,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="85"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
@@ -1658,12 +1658,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="82"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
@@ -1715,12 +1715,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
@@ -1772,12 +1772,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="85"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="82"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="91"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -2032,12 +2032,12 @@
         <v>6</v>
       </c>
       <c r="J25" s="28"/>
-      <c r="K25" s="80" t="s">
+      <c r="K25" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="79"/>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
@@ -2083,12 +2083,12 @@
         <v>48</v>
       </c>
       <c r="J26" s="28"/>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
@@ -2134,10 +2134,10 @@
         <v>48</v>
       </c>
       <c r="J27" s="28"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="79"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="28"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="28"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="79"/>
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="79"/>
       <c r="O30" s="33"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="28"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="79"/>
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="82"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="79"/>
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="71">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D52" s="71">
         <v>3000</v>
@@ -3299,12 +3299,12 @@
         <v>3000</v>
       </c>
       <c r="G52" s="71">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="71"/>
       <c r="I52" s="40">
         <f t="shared" si="15"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -3339,10 +3339,10 @@
         <v>6300</v>
       </c>
       <c r="E53" s="54">
-        <v>12600</v>
+        <v>6300</v>
       </c>
       <c r="F53" s="54">
-        <v>12600</v>
+        <v>6300</v>
       </c>
       <c r="G53" s="54">
         <v>6300</v>
@@ -3350,7 +3350,7 @@
       <c r="H53" s="54"/>
       <c r="I53" s="40">
         <f t="shared" si="15"/>
-        <v>37800</v>
+        <v>25200</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3415,7 +3415,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="17">
         <f>C45+SUM(C47:C53)</f>
-        <v>65137.600000000006</v>
+        <v>66137.600000000006</v>
       </c>
       <c r="D55" s="17">
         <f t="shared" ref="D55:H55" si="16">D45+SUM(D47:D53)</f>
@@ -3423,15 +3423,15 @@
       </c>
       <c r="E55" s="17">
         <f t="shared" si="16"/>
-        <v>215786.27711999998</v>
+        <v>209486.27711999998</v>
       </c>
       <c r="F55" s="17">
         <f t="shared" si="16"/>
-        <v>219790.00266239999</v>
+        <v>213490.00266239999</v>
       </c>
       <c r="G55" s="17">
         <f t="shared" si="16"/>
-        <v>147149.20181043202</v>
+        <v>148149.20181043202</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="16"/>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I55" s="42">
         <f t="shared" ref="I55" si="17">I45+(SUM(I47:I53))</f>
-        <v>853424.13759283209</v>
+        <v>842824.13759283209</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="C58" s="16">
         <f>C64*B58</f>
-        <v>19541.280000000002</v>
+        <v>19841.280000000002</v>
       </c>
       <c r="D58" s="16">
         <f>D64*B58</f>
@@ -3570,15 +3570,15 @@
       </c>
       <c r="E58" s="16">
         <f>E64*B58</f>
-        <v>64735.883135999989</v>
+        <v>62845.883135999989</v>
       </c>
       <c r="F58" s="16">
         <f>F64*B58</f>
-        <v>65937.000798719993</v>
+        <v>64047.000798719993</v>
       </c>
       <c r="G58" s="16">
         <f>G64*B58</f>
-        <v>44144.760543129603</v>
+        <v>44444.760543129603</v>
       </c>
       <c r="H58" s="16">
         <f>H64*B58</f>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="I58" s="26">
         <f>SUM(C58:H58)</f>
-        <v>256027.24127784959</v>
+        <v>252847.24127784959</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="C62" s="16">
         <f>C64*B62</f>
-        <v>45596.32</v>
+        <v>46296.32</v>
       </c>
       <c r="D62" s="16">
         <f>D64*B62</f>
@@ -3802,15 +3802,15 @@
       </c>
       <c r="E62" s="16">
         <f>E64*B62</f>
-        <v>151050.39398399997</v>
+        <v>146640.39398399997</v>
       </c>
       <c r="F62" s="16">
         <f>F64*B62</f>
-        <v>153853.00186367999</v>
+        <v>149443.00186367999</v>
       </c>
       <c r="G62" s="16">
         <f>G64*B62</f>
-        <v>103004.44126730241</v>
+        <v>103704.44126730241</v>
       </c>
       <c r="H62" s="16">
         <f>H64*B62</f>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="I62" s="26">
         <f>SUM(C62:H62)</f>
-        <v>597396.89631498232</v>
+        <v>589976.89631498232</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3886,7 +3886,7 @@
       <c r="B64" s="3"/>
       <c r="C64" s="17">
         <f t="shared" ref="C64:H64" si="19">C55</f>
-        <v>65137.600000000006</v>
+        <v>66137.600000000006</v>
       </c>
       <c r="D64" s="17">
         <f t="shared" si="19"/>
@@ -3894,15 +3894,15 @@
       </c>
       <c r="E64" s="17">
         <f t="shared" si="19"/>
-        <v>215786.27711999998</v>
+        <v>209486.27711999998</v>
       </c>
       <c r="F64" s="17">
         <f t="shared" si="19"/>
-        <v>219790.00266239999</v>
+        <v>213490.00266239999</v>
       </c>
       <c r="G64" s="17">
         <f t="shared" si="19"/>
-        <v>147149.20181043202</v>
+        <v>148149.20181043202</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="19"/>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="I64" s="17">
         <f t="shared" ref="I64" si="20">SUM(I58:I62)</f>
-        <v>853424.13759283186</v>
+        <v>842824.13759283186</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -4002,6 +4002,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K19:N19"/>
@@ -4013,16 +4023,6 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0" header="0.39370078740157483" footer="0"/>
   <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="landscape"/>

--- a/Academy-budget-fall2017.xlsx
+++ b/Academy-budget-fall2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="0" windowWidth="19040" windowHeight="12020"/>
+    <workbookView xWindow="2740" yWindow="0" windowWidth="19040" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Kustannusarvio" sheetId="1" r:id="rId1"/>
@@ -582,6 +582,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -616,15 +625,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -934,7 +934,7 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
@@ -995,18 +995,18 @@
         <v>21</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1098,20 +1098,20 @@
         <v>20</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -1135,20 +1135,20 @@
         <v>23</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="88"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="91"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1172,20 +1172,20 @@
         <v>22</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="91"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1207,18 +1207,18 @@
     <row r="8" spans="1:31" ht="13.75" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1426,12 +1426,12 @@
         <v>37848.725779200002</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="79"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
@@ -1485,12 +1485,12 @@
         <v>22078.423371199999</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
@@ -1544,12 +1544,12 @@
         <v>14508.678215360003</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="82"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
@@ -1601,12 +1601,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="80" t="s">
+      <c r="K16" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
@@ -1658,12 +1658,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="82"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
@@ -1715,12 +1715,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="80" t="s">
+      <c r="K18" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="82"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
@@ -1772,12 +1772,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="80" t="s">
+      <c r="K19" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="82"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="34"/>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="91"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -2032,12 +2032,12 @@
         <v>6</v>
       </c>
       <c r="J25" s="28"/>
-      <c r="K25" s="77" t="s">
+      <c r="K25" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="79"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="82"/>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
@@ -2083,12 +2083,12 @@
         <v>48</v>
       </c>
       <c r="J26" s="28"/>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
       <c r="Q26" s="33"/>
@@ -2134,10 +2134,10 @@
         <v>48</v>
       </c>
       <c r="J27" s="28"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="28"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
       <c r="O28" s="33"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="28"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="82"/>
       <c r="O29" s="33"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="33"/>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="82"/>
       <c r="O30" s="33"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="33"/>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="28"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="79"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="33"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="33"/>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="82"/>
       <c r="O32" s="33"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="33"/>
@@ -4002,16 +4002,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K19:N19"/>
@@ -4023,6 +4013,16 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0" header="0.39370078740157483" footer="0"/>
   <pageSetup paperSize="9" scale="56" pageOrder="overThenDown" orientation="landscape"/>
